--- a/cron/files/RevisionEntradaAlmacen1.xlsx
+++ b/cron/files/RevisionEntradaAlmacen1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\layouts\RevisionCargaAlmacen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{688177B7-AF50-4509-ADF4-DD0A2A8E51FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5984A369-C327-441C-B8E6-F0B1400E758A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12180" yWindow="1560" windowWidth="16485" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
   <si>
     <t>tipo</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>037</t>
+  </si>
+  <si>
+    <t>346366711</t>
   </si>
 </sst>
 </file>
@@ -944,7 +947,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1001,8 +1004,8 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
-        <v>346366711</v>
+      <c r="B2" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="6" t="s">
